--- a/biology/Zoologie/Conus_paulae/Conus_paulae.xlsx
+++ b/biology/Zoologie/Conus_paulae/Conus_paulae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus paulae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,11 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large du Venezuela.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve sur la côte caraïbe de la Colombie, du Golfo de Morosquillo au Golfo Triste, au Venezuela. Malgré sa rareté, il existe des menaces connues. Cette espèce est classée dans la catégorie "préoccupation mineure"[1].
 </t>
         </is>
       </c>
@@ -542,15 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce se trouve sur la côte caraïbe de la Colombie, du Golfo de Morosquillo au Golfo Triste, au Venezuela. Malgré sa rareté, il existe des menaces connues. Cette espèce est classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_paulae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_paulae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus paulae a été décrite pour la première fois en 1988 par le malacologiste américain Edward James Petuch (d)[2],[3].
-Synonymes
-Conus (Dauciconus) paulae Petuch, 1988 · appellation alternative
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus paulae a été décrite pour la première fois en 1988 par le malacologiste américain Edward James Petuch (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_paulae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_paulae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) paulae Petuch, 1988 · appellation alternative
 Gradiconus paulae (Petuch, 1988) · non accepté</t>
         </is>
       </c>
